--- a/InputData/web-app/DpOCU/Dollars per Output Currency Unit.xlsx
+++ b/InputData/web-app/DpOCU/Dollars per Output Currency Unit.xlsx
@@ -570,7 +570,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -587,8 +589,8 @@
         <v>8</v>
       </c>
       <c r="B2" s="3">
-        <f>AVERAGE(12.9722,13.5199,13.1486,12.9406)*10^9</f>
-        <v>13145325000</v>
+        <f>AVERAGE(12.9722,13.5199,13.1486,12.9406)^-1*10^9</f>
+        <v>76072672.223775387</v>
       </c>
     </row>
   </sheetData>
